--- a/dev_test/Processed/Book1.xlsx
+++ b/dev_test/Processed/Book1.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A4BA923-7419-408D-8E0A-6918AD69DB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4F6E70-8B0C-4479-8EFF-AC5C68F7508D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3051098F-EEAC-47DB-A181-F91CE040EF73}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{3051098F-EEAC-47DB-A181-F91CE040EF73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -378,12 +379,1347 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733D4994-693A-495D-ACD4-812685C0CB24}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>9</v>
+      </c>
+      <c r="J2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="I3">
+        <v>9</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>9</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>9</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
+      </c>
+      <c r="G11">
+        <v>7</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>9</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>9</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>9</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>8</v>
+      </c>
+      <c r="I16">
+        <v>9</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE137AD-760E-4988-BE75-C200BF8206B8}">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>10</v>
+      </c>
+      <c r="B1">
+        <v>9</v>
+      </c>
+      <c r="C1">
+        <v>8</v>
+      </c>
+      <c r="D1">
+        <v>7</v>
+      </c>
+      <c r="E1">
+        <v>6</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>4</v>
+      </c>
+      <c r="H1">
+        <v>3</v>
+      </c>
+      <c r="I1">
+        <v>2</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>9</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>7</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>7</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>2</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>7</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>2</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>